--- a/src/attributions/attributions_ig_traj_397.xlsx
+++ b/src/attributions/attributions_ig_traj_397.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,73 +1573,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.001698264351214024</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.008853111477263252</v>
+        <v>0.09032461491966785</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05813259383619924</v>
+        <v>-0.1445922920868696</v>
       </c>
       <c r="F3" t="n">
         <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08592557522859431</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.003036118857995068</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05528059542800033</v>
+        <v>0.04318682327874841</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00653438918012133</v>
+        <v>-0.0583179002477438</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03413670178582022</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.05869909040082785</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001567360319554411</v>
+        <v>0.01533627059170748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.01744324775184785</v>
+        <v>-0.1000685962435049</v>
       </c>
       <c r="X3" t="n">
         <v>-0</v>
@@ -1648,52 +1648,52 @@
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04476024032316301</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.05535741593732631</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.01525338520851749</v>
+        <v>0.001637565456182999</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.01025174781736365</v>
+        <v>-0.07044033317750263</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.03517546497616135</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.04315363701277057</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.006173220493454831</v>
+        <v>-0.01657214440420051</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.02754402183297247</v>
+        <v>-0.1660647138955663</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1702,28 +1702,28 @@
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.003608787566336762</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0.09248739708644117</v>
       </c>
       <c r="AU3" t="n">
         <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1408743524712066</v>
+        <v>0.2882602814315183</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0817121511574934</v>
+        <v>0.1912178635465354</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,76 +1732,76 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1234204575620977</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>3.959733318195056e-11</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-9.760903655175598e-12</v>
+        <v>-0.02483185525781575</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003797162000707332</v>
+        <v>-0.01118249647584029</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.004599159187763767</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.03202559149904778</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.04242101814988663</v>
+        <v>-0.03795674785409718</v>
       </c>
       <c r="BO3" t="n">
         <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06000357361413677</v>
+        <v>0.3157971778643808</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.04551711090771827</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.129316729836858</v>
       </c>
       <c r="BV3" t="n">
         <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.04022198571616029</v>
+        <v>0.1886901713151593</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.07307853778879161</v>
+        <v>-0.06086694736161714</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,52 +1810,52 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1308338178548572</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>-0.007730105949160554</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03981248055139101</v>
+        <v>-0.01914368669473265</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.03463052562159007</v>
+        <v>0.09934947987762371</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.0315398959996047</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0.01594974215373174</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.006068062035726317</v>
+        <v>0.1082209519631139</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.04367873191755157</v>
+        <v>-0.3591433640102047</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
@@ -1864,52 +1864,52 @@
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.08061830465983195</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0.0209680995166651</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.03554720710134541</v>
+        <v>-0.01335847091884826</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.05003050691934117</v>
+        <v>0.06263505741327885</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.04024909257276096</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.01586348001343385</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.06001012879256062</v>
+        <v>-0.000729785930812659</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.04045664705342793</v>
+        <v>-0.01052749616062525</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,28 +1918,28 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.001205886176915946</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.005330051715992531</v>
       </c>
       <c r="DO3" t="n">
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.04509782426123192</v>
+        <v>-0.06009334430105116</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.03622453971317264</v>
+        <v>0.2484679722632705</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,181 +1948,181 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.03263167659931587</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.03940522347465738</v>
       </c>
       <c r="DX3" t="n">
         <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.001886614174692104</v>
+        <v>-0.04025037499413298</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.004834817272681874</v>
+        <v>-0.001279168249224212</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.03035437357352441</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.01492594870933297</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.03521204469465675</v>
+        <v>-0.08235560091449158</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01261995631214352</v>
+        <v>-0.04124649425036499</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.03019848714592818</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>-0.01599068809864547</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.02806740267741216</v>
+        <v>-0.0407433355744234</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.01309743929777289</v>
+        <v>-0.03909592641895326</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.04104781892962592</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.002172451296256502</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0429133142916115</v>
+        <v>-0.02190825290973622</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.02520174394778158</v>
+        <v>0.04650643720458589</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.04752838677040269</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.09424774017042083</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.03136599996941904</v>
+        <v>0.05131333581879809</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.04299102163137528</v>
+        <v>0.04828418536953422</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.08575978265332401</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>0.0860866583129906</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.01049517686197082</v>
+        <v>0.001114453405841115</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.00145060223612837</v>
+        <v>0.01081141066184009</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.000175062432079808</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.06557509196053077</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01580232447807333</v>
+        <v>0.06167596332497448</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.03031359635961737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.149714505735255</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.008904971665266322</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.02776798221020815</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01066667550986851</v>
+        <v>-0.03581899336885915</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05746053330984949</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.06869424425299396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00879701255792017</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.03126137445160049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001602825075924511</v>
+        <v>-0.02300241779406858</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03154215144465805</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1139370858069197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01723331523721143</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.03778838007874064</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02846207194783906</v>
+        <v>0.05847148647745175</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,109 +2217,109 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00126095411866154</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.02080578828302994</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.003047847184190307</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.01051684205525188</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.02422834730207264</v>
+        <v>-0.0121702722523295</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.01956645032552311</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.04333676702967609</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01254463249983987</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.04704702279942756</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0370924943568604</v>
+        <v>-0.008722714290258653</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.004979536559265236</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3138036199629953</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.05552618284692146</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.01287677583505899</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.001212252220642641</v>
+        <v>0.1729152799741269</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.08333009704072049</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.0001504463678475821</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.002119301222881691</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.02861827062355512</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002319094764449795</v>
+        <v>-0.0338608778599664</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.002456210220396169</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.006717785166220515</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0342602490027183</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.08131727426576313</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.02914030991633249</v>
+        <v>0.02068984058419992</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,28 +2352,28 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02336239626725775</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.1768426274462216</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.001440381819470551</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01926442549769245</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.002480327131217626</v>
+        <v>0.02542960425855786</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.06953052041117236</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.05398354762436543</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0136594590441978</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.002983381675328014</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.004265888659276686</v>
+        <v>-0.008802435325876965</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.01889163665552451</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.02502165489139454</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.003971665334485609</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.09303728637050346</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.01790952131099927</v>
+        <v>-0.129458148168921</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.04648791524387794</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.0450767953962698</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.007753019790579488</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.02781550249511222</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01389202023964167</v>
+        <v>-0.00315865149758666</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.01718372713133813</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.05350148353150871</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.005487906679981959</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.001704629051339849</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0004606147517973826</v>
+        <v>-0.0003944074967818237</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,130 +2490,130 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02360511281663856</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.07925054506308804</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.009537188014218489</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03323155568436922</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.009047788849256118</v>
+        <v>-0.01984491122730684</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03432787806574912</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.04463334667105781</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01410837621071243</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.06209097585508522</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01354092899643532</v>
+        <v>-0.01428706706071575</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01286708789102669</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.02799842412526388</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.004213903299727605</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.06107735198091238</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.02402790345671196</v>
+        <v>0.008762970588577133</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02290781065035248</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.02177411607888308</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.004277612294447076</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.02555731143021093</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.02814973298518899</v>
+        <v>0.005417067809084303</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.03508260545132242</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.0439356461413449</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01137391104626312</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.01016570761156619</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0009238746553508682</v>
+        <v>-0.0190185787256981</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.0216309068181491</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.02249950691385786</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.0117735547984016</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.03893135557581847</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.009236931973815629</v>
+        <v>-0.01372027517053958</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03914310124732993</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.0006081785806548758</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.001197963129062115</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>-0.002871389583045982</v>
       </c>
       <c r="FT4" t="n">
-        <v>6.951837467768708e-05</v>
+        <v>0.0004447571696297291</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,177 +2679,177 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0006107093900551161</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.0077399824794758</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01797343871829161</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.020708200836567</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.0195219993064889</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.03842279882539255</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01160792980306349</v>
+        <v>-0.03772126269214617</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02429064866192508</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01412424929301469</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03518995517633708</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.009447666336808182</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.00244698837642686</v>
+        <v>-0.01950336129371932</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.002777682879670186</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.001786643516197974</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02235147011765707</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.009185044145854747</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04383805668275827</v>
+        <v>-0.02473643255117674</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01886603689789432</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01119467703635851</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.006964103627074049</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.008723044933638811</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.01948486158371939</v>
+        <v>0.006030071692178677</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.004661000740350972</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.00835495949137016</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.01354704131266916</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.01105927260255084</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.01568568305972077</v>
+        <v>-0.01976971881468227</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.004522180198708965</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.007360466975751229</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.004828450820123973</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.0508213226349291</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03616295795480003</v>
+        <v>-0.06543108999997677</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.02411536069817988</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.02739565865006085</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.06374557564829751</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.01063490209974794</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.008341782085005045</v>
+        <v>-0.006795319203968571</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.003166623107207149</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.005297912993756163</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.003336975978211888</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.03654566923716939</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.009645072277110256</v>
+        <v>0.01888008075855696</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.005991175227395509</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.0007699478536730612</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.01621875873040027</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.02106238247269873</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.04141294270186638</v>
+        <v>-0.02925020711901917</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.00232379666633151</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.0001170117975133017</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04879646174505881</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.006493092217834515</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.005548009401088139</v>
+        <v>0.01571979183097041</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.01422699216706482</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.00351693541050142</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.008158449186686009</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.003564089179364146</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01532111050136374</v>
+        <v>0.007355522678756745</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.005915552769273313</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.01624300011646591</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.009339787255485326</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.0007156205260100591</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.006886877970668927</v>
+        <v>0.01548128126426912</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.02063238255990376</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.006265660285838116</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.01214768627951663</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.01831370171781652</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,52 +3047,52 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01743681861694796</v>
+        <v>0.02247948663243271</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.002344185166505159</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.003215407232684232</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.01014018840901469</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01074260525520543</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02010154127107574</v>
+        <v>0.01726434608075239</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.006428855994417108</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.006115825081356996</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02497784709691957</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.02175322516052989</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
@@ -3101,25 +3101,25 @@
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.003222713714425462</v>
+        <v>-0.01605942835475044</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.003624257915941022</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.01466842435151697</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.007750289240630775</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.001817992615308916</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
@@ -3128,106 +3128,106 @@
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01312178912570526</v>
+        <v>-0.001017507856137674</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01758117057220966</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.001325506166757821</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.009644096966278218</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>0.009931991343501614</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01212491335168526</v>
+        <v>0.03094515291277698</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.006656237423974093</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.02423806648754386</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.01633115805090646</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>0.004402686883933253</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.005180907059917549</v>
+        <v>0.01579354371600522</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01755493864336319</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.008714499349310215</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.0132078127463362</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.0231575383780902</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.023163633490392</v>
+        <v>-0.02700032954092544</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01718952318767884</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.01611166005965519</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.0238801870954873</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.001317623452170691</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.003245143550101265</v>
+        <v>0.0001796630271860536</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.02481093501242979</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0.007919032041706939</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.006764585531413379</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01405848636208366</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.004618092596903043</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.006927951404356536</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.02157597097032139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4559946977108292</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06786340826984898</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1437874557152473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02425270723528327</v>
+        <v>-0.05338958432052199</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09996167886186218</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.2579406960596352</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0168101833523711</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.03953832070310201</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.007972884634754701</v>
+        <v>-0.08617301584639329</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08195225252091483</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1478179770244236</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001463436587736077</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.0368271281346227</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03065668860584124</v>
+        <v>0.005945037065637771</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01148402252585213</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.05650102897639715</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.008277593717437928</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.02344142287001724</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.01015062567891064</v>
+        <v>-0.01472856783133344</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.03174952545423514</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.08886699058230781</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.02162235833632737</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.06795647690123482</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03474583418502605</v>
+        <v>-0.06009801107247891</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,76 +3981,76 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.003257584373220954</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.6432196279590225</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1467160421128384</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.04571051416396374</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02781931012284578</v>
+        <v>0.2314701247779373</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1013060986915207</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.03744493830574813</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01700577095147421</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.03984409919667024</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.001696140008161922</v>
+        <v>-0.1039505471847601</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.004104440027236021</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.06618366313147248</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04872619413519277</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.1275764180207766</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0587436445802608</v>
+        <v>0.06778339226952768</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,25 +4059,25 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02764037036318908</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.3322504882083956</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.02204993218013847</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.01859597639307958</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0279489782579585</v>
+        <v>0.01561269447990988</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.07687525757179244</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.123547995420889</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03715263992263595</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.02697185256381011</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.004850192751668092</v>
+        <v>-0.03347561043596822</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.02887335414642686</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.0295613207580282</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.007865358930847837</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1613882611403268</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.00733063620611102</v>
+        <v>-0.1909433039363018</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.05977462640697326</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.09761622922973102</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02348837014556025</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.070083779693545</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01751506613121502</v>
+        <v>-0.02882455030609429</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.03189325140535045</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.06252486370759369</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01057403281510495</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.01261010894958277</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.003022969754456577</v>
+        <v>0.002111453266131531</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.02716356549804234</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.09316593238116001</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.0053496364145111</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.05651178795039629</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.00477899814616446</v>
+        <v>-0.02641938791152773</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
@@ -4224,22 +4224,22 @@
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.02436135119285997</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.04101005616281093</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.02377739845547302</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.0528546529883677</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.006193291732207589</v>
+        <v>-0.04771887448834205</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,22 +4251,22 @@
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.0196361419670123</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.05129519349923534</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02729714876531155</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.067758280530078</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03745657460210067</v>
+        <v>0.00174035448372136</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4275,25 +4275,25 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.02447774441755586</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.09337790186941065</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01024135669683721</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.06043854487165377</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.02039323580904199</v>
+        <v>-0.06286620303337137</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.04620144219041081</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.108091733494472</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02971520305039247</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.04282519876570012</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0001146059431611987</v>
+        <v>-0.04179836489300566</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,55 +4329,55 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04081235801442831</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.005265651684507567</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02847908421519248</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.06020137748472168</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02866337710623231</v>
+        <v>-0.002064218066986844</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.05368825138449365</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.005354642135566605</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0228179057599374</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.06053950023645613</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002127368739334628</v>
+        <v>-0.03625059855967578</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0005151536921098536</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.03887839450413223</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01261685479420457</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.04213652380020357</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.0286495230259054</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,37 +4987,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.07800226553318974</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02997578681160138</v>
+        <v>-0.01499663365721613</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02599479101141196</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01110865083675742</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06102288351104845</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.02403564869042484</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.007092093162303244</v>
+        <v>-0.02063751418909289</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>-0.000769072079744465</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0002916835960918389</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03420637929085103</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.003233816149634494</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01976003380732177</v>
+        <v>-0.01318986620280625</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.02002827139485606</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001384701421368521</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.01027110716555184</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.01489391499927191</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.0006938804839682518</v>
+        <v>0.01483792305531875</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.003106388305953578</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.004259628422904977</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.01607588120659015</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01370542956894517</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.002363758870375724</v>
+        <v>-0.01633103969284404</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.01490371052510201</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.002541214605583176</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.004222983669342848</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.1001304419689981</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.06966358338315036</v>
+        <v>-0.0116116350792308</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.02095227882211252</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.05850829934771845</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.070140435037797</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01488069347131692</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01669449784773458</v>
+        <v>-0.01532019550585599</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.004539876365938006</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.01353726651938377</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.0003916130190159147</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.04315715782166764</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,79 +5188,79 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01612595363393065</v>
+        <v>0.03052435758205739</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.01078782999296582</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.01416310491482201</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.004852431335126228</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.03636300969793031</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.06804214575240702</v>
+        <v>-0.02356810172248408</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.02068146297118289</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.007737707733289793</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.03830132344381191</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.009099937642156844</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.01349027563872069</v>
+        <v>0.0004306210347867127</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.01512210745385511</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.005572741876980247</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.005089667651321204</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.01246443838942189</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,133 +5269,133 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.03851272045004589</v>
+        <v>0.01443099888127456</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03373785853223209</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01867209217041638</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.03756864593950481</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.002558835629002163</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
         <v>-0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.009059542572855715</v>
+        <v>0.0006894424565565757</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.01767774585614089</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.001658116618114501</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01446251135767802</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.01224158471410043</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0437557507116764</v>
+        <v>0.03198693222189947</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01488646096661662</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01683315926561155</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.006699143662905243</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.005021260054592616</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.01145023907501223</v>
+        <v>0.02051524090170383</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>-0.0008155618424003642</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.002460302736224312</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.02437440983186329</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.02902204871236597</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.02094727046808667</v>
+        <v>-0.0401793314938265</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.008149148483797063</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.01934210976217693</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.008401515745202395</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.005002908558258628</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
@@ -5404,52 +5404,52 @@
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.005895496097541867</v>
+        <v>0.0003004651003700006</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.001779378110469817</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.002918110026407482</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01441663715053631</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.002020863315854582</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>7.555500363175652e-05</v>
+        <v>-0.02056692485602247</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.0490404383123416</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.03911914745944496</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.01488065080994017</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>0.003231390990977015</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
@@ -5458,52 +5458,52 @@
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.006234687193172331</v>
+        <v>0.001844932283075199</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.01947323996866248</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.001269768957334899</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.01063323620500259</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.02212477899358138</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.008369161547115079</v>
+        <v>-0.04198328712623728</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>0.000811969575263077</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.01083674373552599</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.02374557165184861</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.004600581392403534</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01253321805494304</v>
+        <v>-0.009963703190071851</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03741934682712134</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.02612466886774125</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0129682132801215</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.02318459598526812</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.006063735650359174</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.03063793883753833</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.0343784460323768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2478270667923743</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05711782631438806</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.08512506288414574</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.001737532300273623</v>
+        <v>-0.0770781979050775</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09627413312133565</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1722098313094498</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03006979503835757</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>-0.04797065910449437</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03610053029789553</v>
+        <v>-0.1045690184382968</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08804591191386638</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.07097895114370237</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.008824803847906173</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.02380748467264028</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.003749310387939577</v>
+        <v>0.04469909081548586</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,52 +5631,52 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01448019517358704</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.03758959895396671</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.004634304408788825</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>-0.02494016969401811</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.003175236198480421</v>
+        <v>-0.000695699113788891</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.02199740891348693</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.02796839100281675</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.01720610101489032</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.04162223882050319</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02184416596377865</v>
+        <v>-0.06333368512197281</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -5688,76 +5688,76 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.004547614770388051</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.348530941473327</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1049228571418847</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.02562039017347631</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001358497536898006</v>
+        <v>0.1474885666878201</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.07562068943438409</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.01421865849824503</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.01731099862716426</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.02693460836792124</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.004979098459447921</v>
+        <v>-0.09875804124045706</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.006883332199591687</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.07573239486406186</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.03140453317975927</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.06878437784440068</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05443792324587524</v>
+        <v>0.1015049696590581</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
@@ -5766,25 +5766,25 @@
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.02290950952535726</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.1684770396469441</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.02461910943553193</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0.003130987287477527</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.00854062130716403</v>
+        <v>0.03524378775302796</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
@@ -5796,25 +5796,25 @@
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.06112902124384825</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.06159400497161319</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02756011574098425</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0.00838200591831716</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002652381738269544</v>
+        <v>0.006066550540927041</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
@@ -5823,22 +5823,22 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.0225993877498787</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.05178428257874237</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.005562586103479638</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.08129763283459271</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01731881923499725</v>
+        <v>-0.1081007621738944</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
@@ -5850,22 +5850,22 @@
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.03086568931214705</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.0403772994016634</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01855285367599122</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.02993713267277865</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.005895040760363049</v>
+        <v>0.009186629523722822</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5877,25 +5877,25 @@
         <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02546687464103682</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.0001953386867861715</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.02602660685808186</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.00733212105636209</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.009847644768072327</v>
+        <v>-0.02956148125712146</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.03871332872509359</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.05957810821352074</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.001019095329058454</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05567210868333962</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.009372825841685846</v>
+        <v>0.01382138539986824</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,22 +5931,22 @@
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.02158665224864131</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.03969055688672352</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.01035531343076622</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.03560198865763204</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.007310257219021505</v>
+        <v>-0.01003350743242986</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,52 +5955,52 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.004664058624669285</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02989436124649403</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01941769745206521</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>0.0794469477804569</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02604837444643539</v>
+        <v>0.0475510095339919</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.01901876946792443</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.05981017005087289</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.009001730199606909</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.05187922915136967</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.0008415679033469567</v>
+        <v>0.00910060409603229</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.0360617265680676</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.05193320827638647</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0225705800655856</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.01911574239258216</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.007611375389503031</v>
+        <v>0.01262812018257569</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6036,52 +6036,52 @@
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.03275403214453916</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.05321880830924241</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.03064250187917716</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.0531198797670234</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03053350804429516</v>
+        <v>-0.0160596240589603</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.03259806540558563</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.004765586636804908</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01899786897517042</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.002377691779092758</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.001596746875203994</v>
+        <v>0.03618285945293647</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
@@ -6093,34 +6093,34 @@
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.003997682324289982</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.01010093629088331</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.009478759106039659</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.02850300505104619</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.0176239206832397</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2395905988824716</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01732159242152985</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.02260548145099555</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01281232367608556</v>
+        <v>-0.04473562206476055</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05419755767516805</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.1205635680562197</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.00753366252980105</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>-0.01222221666999077</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02030256529316877</v>
+        <v>-0.05493009660544945</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05859469112323591</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.05295167435150055</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003862107027659886</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.01311600285939977</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.00361099962236816</v>
+        <v>0.03661349611912841</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03122099921563429</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.038412524725936</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.011902836148649</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.003095204526185968</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.008704090488345606</v>
+        <v>-0.001194306501342102</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.01895102278277988</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>-0.01416845430461252</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.001625802078987664</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.01735261886667699</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02762676231629797</v>
+        <v>-0.04827334063388542</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,52 +6826,52 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001376047298751038</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.285374850279723</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.03153034193923995</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.03560797298708263</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01847390951731019</v>
+        <v>0.06419068831876769</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05560925860037202</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.02337494184067121</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.01367642346535048</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.03987018364106877</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.002274578487013074</v>
+        <v>-0.04741834079586165</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,49 +6880,49 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.02260015065167434</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1129510625623535</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.03502321331765174</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0</v>
+        <v>0.02480448311757739</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02586760869675183</v>
+        <v>0.09015059929041105</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.02580495348238233</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.149480802393483</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.001860832682450529</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.03211092624403375</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.02098822272735991</v>
+        <v>0.01863947577095644</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,49 +6934,49 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.05186984170118609</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.04902187591825779</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01530611124657673</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.006109415361769141</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.003032995710142002</v>
+        <v>0.004849358026871082</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.009078988035612988</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.0572930055195547</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.007636020645241687</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.04343901823266585</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.03009525424055912</v>
+        <v>-0.06445135950647994</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04026759781824252</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.03245441320855889</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01483807357389027</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>0.006617944262692086</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01151407792941631</v>
+        <v>-0.0005349525971945355</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01205096006307356</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.009846164269758867</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0325924525932298</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.04661186430567374</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.003428128143982184</v>
+        <v>0.006311446466177676</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,25 +7042,25 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0055914651367778</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.0540677150857812</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.0278040576709924</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>0.001799014123649171</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.006666732152279742</v>
+        <v>-0.0100031105582406</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
@@ -7069,22 +7069,22 @@
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.02516975399193757</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.003012200518026189</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.003341289601636066</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.007477676727924408</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01005185170525429</v>
+        <v>-0.02234698900503848</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,22 +7096,22 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.01477900663563455</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.02609347614957539</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.008340465798151469</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>0.00127390261319926</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02160617438414764</v>
+        <v>0.04532877322496617</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7120,25 +7120,25 @@
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.009209071696982473</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02974494554189926</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.02759945450836433</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.01299851295108574</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01717575495581324</v>
+        <v>0.009604620613456896</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7150,100 +7150,100 @@
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.02511422920485853</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.03069047862797595</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01632964970524009</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>0.0001019647409090032</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0009974285081061542</v>
+        <v>0.01189444131379129</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.01850812712929116</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.01448912159608468</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02296511467357149</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.00865841660879195</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.0288483364642553</v>
+        <v>-0.01738140870856777</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.035435946508321</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.04301015810713952</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.008265579527029202</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.02559257085527348</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.02026217409237923</v>
+        <v>0.004712456038873086</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.004577983973914973</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.004091093987375454</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.007557415580019947</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.02306904632550895</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7252,13 +7252,13 @@
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.01757216254490709</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,127 +7266,127 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.2380803427978928</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1040915497607443</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05655974241593222</v>
+        <v>-0.001095746820180034</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1450025907573197</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1465466490739873</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.1743811196094802</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0540173329988345</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.05309917736814585</v>
+        <v>-0.01115106823617612</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.1132180230339874</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1351910100584157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.01588772138096599</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0412714099455934</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1066565663614248</v>
+        <v>-0.01820940800428576</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.01241013159543829</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05966814345856609</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.02374188396086672</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.004040779658008457</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.01256206844813607</v>
+        <v>0.01196994959750774</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.004925490112620794</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.03822460265653245</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.01675476791111415</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.03242125404071353</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02767752892467585</v>
+        <v>-0.02376916693079306</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.05585425681560269</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,25 +7395,25 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02086314702019733</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1853529615329354</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.09809402147905719</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.03530682314436094</v>
+        <v>-0.02027829032981919</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.09594175787759122</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.105539251006503</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.07394063297761189</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.01458932879422946</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.02352544209359623</v>
+        <v>-0.02361206256655182</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.04219388597326065</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.003823755146800716</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.06996361920194112</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.00301138304718598</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01695691078412823</v>
+        <v>0.0411344827109453</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.005803542065194317</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,387 +7476,387 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.05944923357407292</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.08968470917302152</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.0848256658701122</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.004196256037209435</v>
+        <v>-0.02260733997654604</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.0273533523770306</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1325011840547447</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.0491033465668501</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03453878676568345</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.009262826323658185</v>
+        <v>-0.00783743761778583</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.03547152616640408</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.01658867920505</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.03208795672521764</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.02695560242213531</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.04908538140915152</v>
+        <v>0.0295951683070237</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.03450178133857681</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.03788046755890823</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.03398590178238301</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.03628115807424188</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.002854842845874615</v>
+        <v>-0.007368391805263044</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.03254821188564748</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.0251856693317543</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.009920023866317525</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02284213660286955</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0009031331447306066</v>
+        <v>0.00163339553041885</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.005261083148832728</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.002656473534261846</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.03031462201352895</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.01351911751234395</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.006750659374786241</v>
+        <v>0.007757981170398427</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.009476880008304933</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.05978926542023268</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.0008233324902340991</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.02222113183428056</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02035132798466887</v>
+        <v>-0.02443437726712577</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.0004279496745904572</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.03686313829318775</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.02534300610358594</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.04789852145246452</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.03707074731101625</v>
+        <v>0.01624500094036718</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.02214252609574052</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.03219417256747109</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.02866554314194759</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04496818646850231</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.006889271179289107</v>
+        <v>-0.01639738409380994</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.05136565498888223</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.04409162396160552</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.0373743266400248</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0298067795296744</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.008369762833164584</v>
+        <v>0.0004981469730564256</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.03762654463535887</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.03908431500357518</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.006352481097524926</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.01504679198635264</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.04680108948617587</v>
+        <v>-0.02274936537047492</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.02641223831434603</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.02597214105595081</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01122804921880683</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.0024482265245323</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.00132073848077507</v>
+        <v>-0.02845589955503868</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001971890349372318</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.01067802041808363</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02210098601869107</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.03718860617942403</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.03266511051430239</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.007707345276696086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>-0.1779658055421642</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0.3043416089955812</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02579806625166765</v>
+        <v>-0.06540997481381394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2168620891977265</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.06419724043973976</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -7865,25 +7865,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.1044533697199827</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0.3141743273965617</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.02994936839107211</v>
+        <v>0.04837984246196645</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2063229906849282</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.05448964242081884</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -7892,76 +7892,76 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>-0.03292509387171252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.07007927897998519</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.04208863914526525</v>
+        <v>0.005998666685757456</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03677721751032537</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.00471378677739225</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.007001377456999233</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>-0.03651820288423874</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.04141562331089529</v>
+        <v>-0.02691667935205952</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.02020112771322092</v>
+        <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.01279218330876991</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.002253872104288313</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.03780276843722351</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02931225139799425</v>
+        <v>0.05038461061440211</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01559127408385194</v>
+        <v>-0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.00874790948931513</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -7973,76 +7973,76 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0.1217647488737073</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>0.2073974694958791</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.02656149380323062</v>
+        <v>-0.1640918840718496</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1031590401753769</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.04470491090246263</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0.02120035932643963</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0</v>
+        <v>0.04612775026716067</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.004265275022417341</v>
+        <v>-0.04248437365756278</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.03149941327946389</v>
+        <v>-0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.03601296858570756</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>0.03803117903454503</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>-0.01636859424534997</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.01658135683414611</v>
+        <v>-0.1409039784830825</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.02725238276389489</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.004845996803747474</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
@@ -8054,49 +8054,49 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>-0.09628625480457949</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>0.1247787745919107</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.03906042996751158</v>
+        <v>-0.1132924608713821</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.1022674954022358</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
         <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.01072491318239732</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>0.05504809367520185</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0.06273467160960852</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.006794030029689997</v>
+        <v>-0.01656365905743256</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0.03804953271362865</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.02211141241773819</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -8105,52 +8105,52 @@
         <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>0.02061206783606422</v>
       </c>
       <c r="CP14" t="n">
-        <v>0</v>
+        <v>0.03455177348860076</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.01954675384716232</v>
+        <v>0.1001263124559978</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.07139057134777103</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.02712036992770146</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0</v>
+        <v>0.03771000952891824</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>-0.05370277550890187</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.004610290249342092</v>
+        <v>-0.02398992093237077</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0.04613752124025567</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02953316717452029</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
@@ -8162,49 +8162,49 @@
         <v>0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0.00315479341646775</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0.04879069569492268</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.007511658757665995</v>
+        <v>-0.002029219878160479</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0.01072447935959853</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.004632702853962662</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>0.04061717300431603</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>-0.02442313967035403</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0112876880268151</v>
+        <v>0.04262351006982984</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0.0009562320142558335</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0169313628229462</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
@@ -8216,49 +8216,49 @@
         <v>-0</v>
       </c>
       <c r="DY14" t="n">
-        <v>0</v>
+        <v>-0.001663973139575416</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.03289704743536009</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.002550431594365763</v>
+        <v>0.02786299346047845</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0.01273831397631602</v>
+        <v>-0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.005200409723977026</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
         <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0.06120066635339683</v>
       </c>
       <c r="EI14" t="n">
-        <v>0</v>
+        <v>-0.09125826652996437</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.0315968724204846</v>
+        <v>-0.02668036815934256</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0.06151122784125566</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.009003274618782342</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
         <v>0</v>
@@ -8267,52 +8267,52 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0</v>
+        <v>0.0293554551836835</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>-0.03495992820643429</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0101208667482292</v>
+        <v>-0.02768205745827738</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0.03814906469922216</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.03357234666478909</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>0.04657092535378215</v>
       </c>
       <c r="FA14" t="n">
-        <v>0</v>
+        <v>-0.05832051798786714</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.002804150666776075</v>
+        <v>-0.02734024532360172</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0.04490134229643215</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.02607998315449184</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
@@ -8321,25 +8321,25 @@
         <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>0.01596287404325158</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>0.04109055325834993</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.01145950222974784</v>
+        <v>-0.04346372814207073</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0.02039487249009081</v>
+        <v>0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03873477258102881</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>0.01038519542899066</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>0.003744241552520627</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.06152174877941968</v>
+        <v>-0.05468135975605013</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.007731409079051422</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.004581082878190242</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8378,25 +8378,25 @@
         <v>0</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0</v>
+        <v>0.03507453666508758</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0.04798270810849641</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.02057365094047445</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0.01161126041799203</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI15" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>-0</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8973,52 +8973,52 @@
         <v>-0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.3581279038583455</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05163736458497385</v>
+        <v>-0.3552174356998367</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2228305869627059</v>
+        <v>-0.1130050512036871</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03645214868840702</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.2537046594813843</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.03128888655093009</v>
+        <v>-0.3254358246012867</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2163405961180153</v>
+        <v>-0.1267298653896499</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0550517682948544</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.08130389609941696</v>
       </c>
       <c r="U16" t="n">
         <v>-0</v>
@@ -9036,16 +9036,16 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.042158073702911</v>
+        <v>-0.03839207642913476</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02316495897245385</v>
+        <v>0.06926843395899895</v>
       </c>
       <c r="Y16" t="n">
         <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.008956889406430303</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -9054,61 +9054,61 @@
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.06229740106313886</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.06840769293116644</v>
+        <v>-0.01749117597296074</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.03406070597610156</v>
+        <v>0.0196229696245853</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.02223783131423604</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.09841938817287907</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.00503434512616409</v>
+        <v>-0.03517844880671162</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02847109207326072</v>
+        <v>-0.04309221491025407</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.01453836311654002</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.3445918013999379</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -9117,97 +9117,97 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.01399037773729413</v>
+        <v>-0.1521829549091281</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.06303239781359039</v>
+        <v>-0.07592623119500976</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.02324452366091226</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
         <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.06657721025776749</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.007560825914184826</v>
+        <v>-0.2079256918726379</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.04870534519286982</v>
+        <v>-0.03891899373700823</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.04954831056356925</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.154122106477126</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.002223193115349646</v>
+        <v>0.05669989318162814</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.04195678869756346</v>
+        <v>0.08045933601009825</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.02347942837750664</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.2099856072932412</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.05226966270875167</v>
+        <v>-0.07881594609706921</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1125937202573521</v>
+        <v>0.03513436995713929</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.004318887029938917</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
         <v>-0</v>
@@ -9216,106 +9216,106 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.05232347192583432</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.001789102061018379</v>
+        <v>0.0526957416533528</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.03478273250077463</v>
+        <v>0.0405568340591172</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.00979221522297009</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0.05992074009885125</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.00535167852333611</v>
+        <v>-0.01166584046404658</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.05989071480389246</v>
+        <v>-0.009451687034229645</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02426095112704111</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.0285324634172384</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.0142351649823255</v>
+        <v>0.04743827807174113</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.04045725777530761</v>
+        <v>0.05604577323704993</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.01526671281555825</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="n">
         <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.04744950552389281</v>
       </c>
       <c r="DG16" t="n">
         <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.05465614829511195</v>
+        <v>0.02547523005333088</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.007268277416649444</v>
+        <v>-0.01791648910207516</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.003829048954201671</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -9324,52 +9324,52 @@
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.03855497942595164</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01277000951423441</v>
+        <v>0.0375544353794387</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.03670882804757436</v>
+        <v>-0.1048806296580295</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.01669459183291752</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.01331113302600846</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.03187890229217914</v>
+        <v>-0.06298903628448407</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.006117070288761853</v>
+        <v>-0.06020687650575474</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.02298417911830217</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.02856862807114661</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9387,154 +9387,154 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.03869185216124774</v>
+        <v>0.04754001492453719</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.06337554763673825</v>
+        <v>0.01926735800283681</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.04396619017751602</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>0.05101932006740813</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.01139094312233737</v>
+        <v>0.02057828172278819</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.0293808795254782</v>
+        <v>0.07679226084481514</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0223275418040634</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
         <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.01894552024732665</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.01088935639813301</v>
+        <v>0.04218501308893562</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.03939859795906182</v>
+        <v>0.05745752044798327</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.01642781583161079</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>-0.06900340801714906</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.01800478636589256</v>
+        <v>-0.04487161840218304</v>
       </c>
       <c r="FL16" t="n">
-        <v>-0.0389612385674625</v>
+        <v>0.02829868126455205</v>
       </c>
       <c r="FM16" t="n">
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.02877955566188195</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>0.007026706047410248</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.006148746402588393</v>
+        <v>-0.007608394816626237</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.00894476319120968</v>
+        <v>0.006727600140629851</v>
       </c>
       <c r="FV16" t="n">
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.02938536112222686</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>-0.04633379327015862</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.0410116308267456</v>
+        <v>-0.06260002050707217</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.01829852547473139</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9542,22 +9542,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3924839109889314</v>
+        <v>0.5392210748165891</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>-0.2313949923908778</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.007861076524398167</v>
+        <v>-0.1917456059448631</v>
       </c>
       <c r="F17" t="n">
-        <v>0.628520847355023</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>-0</v>
@@ -9569,22 +9569,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3237982329177373</v>
+        <v>0.435116527475411</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.2436527913080966</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1069349434506956</v>
+        <v>-0.2391524766437628</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6924306567153798</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
         <v>-0</v>
@@ -9593,28 +9593,28 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03898338758966245</v>
+        <v>0.1361108834667332</v>
       </c>
       <c r="U17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0.01419758014113132</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.05435372066745543</v>
+        <v>0.08046189944221187</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1188129685727824</v>
+        <v>-0</v>
       </c>
       <c r="Y17" t="n">
         <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -9623,25 +9623,25 @@
         <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.0973429683180963</v>
+        <v>0.1343660002745654</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0</v>
+        <v>-0.007122570402484944</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.1127625017497326</v>
+        <v>-0.02311702069241071</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.06509694027673853</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
         <v>-0</v>
@@ -9650,19 +9650,19 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.03752079929359765</v>
+        <v>0.06145335053810863</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0.03187712638626456</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.0408760938318232</v>
+        <v>-0.06743666200884105</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.1419473246083615</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>-0</v>
@@ -9674,22 +9674,22 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.2448986795089805</v>
+        <v>0.4377243569944291</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>-0.007231170670585622</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.127971832736449</v>
+        <v>0.04485888336303958</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.2516249808597439</v>
+        <v>-0</v>
       </c>
       <c r="AZ17" t="n">
         <v>-0</v>
@@ -9698,82 +9698,82 @@
         <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
         <v>-0</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.09936720049213632</v>
+        <v>0.05358642283509237</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0</v>
+        <v>-0.1103567771034349</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.08663910279974517</v>
+        <v>-0.2404590485592885</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.1323079147404342</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
         <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.04804985349190512</v>
+        <v>0.1082778035228328</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>-0</v>
+        <v>0.04795565221303457</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.109801617490846</v>
+        <v>0.09954952680525518</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0.09704537154745671</v>
+        <v>-0</v>
       </c>
       <c r="BR17" t="n">
         <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0.1232500540747767</v>
+        <v>0.2445477435313177</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>-0.01926335501946112</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.06281876164198191</v>
+        <v>0.0652981316561505</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.2647680075535121</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
         <v>-0</v>
@@ -9782,22 +9782,22 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.1021909430908715</v>
+        <v>-0.0976233934261468</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>0.02223602754354025</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.00585065482643882</v>
+        <v>0.005055566121770269</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0.08956214579691896</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
         <v>-0</v>
@@ -9806,52 +9806,52 @@
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM17" t="n">
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0.003902502903786819</v>
+        <v>-0.08081016120433437</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>0</v>
+        <v>-0.06582091984189786</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.1087309826937309</v>
+        <v>-0.08473953587183645</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.1252622356514994</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
         <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV17" t="n">
         <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.09085888339748045</v>
+        <v>-0.07211568451681409</v>
       </c>
       <c r="CX17" t="n">
         <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0</v>
+        <v>0.03739862401397212</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0165834344742972</v>
+        <v>0.003170369636197583</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0.07893201150333877</v>
+        <v>0</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
@@ -9860,31 +9860,31 @@
         <v>-0</v>
       </c>
       <c r="DD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0298027630208072</v>
+        <v>-0.0525867127268622</v>
       </c>
       <c r="DG17" t="n">
         <v>-0</v>
       </c>
       <c r="DH17" t="n">
-        <v>-0</v>
+        <v>0.02417154615878704</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.01147245722061067</v>
+        <v>0.01223560442883044</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.03314622137157171</v>
+        <v>0</v>
       </c>
       <c r="DK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM17" t="n">
         <v>0</v>
@@ -9893,19 +9893,19 @@
         <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.00868095305468603</v>
+        <v>-0.04767408732139035</v>
       </c>
       <c r="DP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>-0.03153003202461213</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.01045963742091434</v>
+        <v>-0.07640657248283034</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.1002024961086014</v>
+        <v>-0</v>
       </c>
       <c r="DT17" t="n">
         <v>-0</v>
@@ -9914,25 +9914,25 @@
         <v>-0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0.06582833933747191</v>
+        <v>0.06063056589632058</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0</v>
+        <v>-0.009447059043503118</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.03182413485590119</v>
+        <v>-0.04557425563513693</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.02447711419476915</v>
+        <v>0</v>
       </c>
       <c r="EC17" t="n">
         <v>0</v>
@@ -9941,79 +9941,79 @@
         <v>0</v>
       </c>
       <c r="EE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.09983182959030669</v>
+        <v>-0.05920001115115349</v>
       </c>
       <c r="EH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0</v>
+        <v>0.05682121320582734</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.08076365956757328</v>
+        <v>0.07541652345299499</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0.08702624974211029</v>
+        <v>-0</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN17" t="n">
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.04437438441441528</v>
+        <v>-0.0796851322123891</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>0.02301218617906965</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.05103720712036103</v>
+        <v>0.06903849702111255</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0.1000500649462552</v>
+        <v>-0</v>
       </c>
       <c r="EU17" t="n">
         <v>-0</v>
       </c>
       <c r="EV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.1075359235786205</v>
+        <v>-0.08143104726853335</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0</v>
+        <v>0.04415329239876076</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.006820459377712909</v>
+        <v>0.0169887076356888</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0.103159430354489</v>
+        <v>-0</v>
       </c>
       <c r="FD17" t="n">
         <v>-0</v>
@@ -10022,25 +10022,25 @@
         <v>0</v>
       </c>
       <c r="FF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.02919562324821325</v>
+        <v>0.03146525222511453</v>
       </c>
       <c r="FI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0</v>
+        <v>0.0651099953570683</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.007177290003307317</v>
+        <v>-0.05865291137049654</v>
       </c>
       <c r="FL17" t="n">
-        <v>-0.1157313349350339</v>
+        <v>-0</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
@@ -10049,58 +10049,58 @@
         <v>0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.03267588265720943</v>
+        <v>0.002095355033328062</v>
       </c>
       <c r="FR17" t="n">
         <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>0</v>
+        <v>0.028375366096534</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.002907438895273963</v>
+        <v>0.006697218875671243</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.004890692154758172</v>
+        <v>-0</v>
       </c>
       <c r="FV17" t="n">
         <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX17" t="n">
         <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.003974528805525368</v>
+        <v>-0.02001850666739925</v>
       </c>
       <c r="GA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0.04853288198166399</v>
       </c>
       <c r="GC17" t="n">
         <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.06829853362316374</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
         <v>-0</v>
